--- a/biology/Botanique/Bruno_Paillard/Bruno_Paillard.xlsx
+++ b/biology/Botanique/Bruno_Paillard/Bruno_Paillard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bruno Paillard est une maison de Champagne, fondée en 1981 à Reims et dont le siège est situé avenue de champagne à Reims.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bruno Paillard, courtier de métier, crée sa propre maison de champagne à 27 ans, en 1981, sans un seul arpent de vigne et dans une cave louée. En 1994, l'entreprise achète ses premières vignes : 3 hectares de grands crus à Oger dans la Côte des Blancs[1]. Elle poursuit les acquisitions de vignoble pour atteindre, de nos jours, 32 hectares dont 12 en grand cru[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bruno Paillard, courtier de métier, crée sa propre maison de champagne à 27 ans, en 1981, sans un seul arpent de vigne et dans une cave louée. En 1994, l'entreprise achète ses premières vignes : 3 hectares de grands crus à Oger dans la Côte des Blancs. Elle poursuit les acquisitions de vignoble pour atteindre, de nos jours, 32 hectares dont 12 en grand cru.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Caves et bâtiments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site de Reims, ne possède pas de cave taillée dans la craie comme c’est le cas dans les autres maisons de Champagne à Reims car la société Bruno Paillard, qui serait à l’origine d’un concept totalement révolutionnaire[réf. nécessaire] en Champagne à l’époque, crée en 1984, la première cave entièrement hors-sol[3]. En 1990, pour faire face à l’augmentation de son stock, le bâtiment est modifié par l’architecte Jacques Bléhaut.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site de Reims, ne possède pas de cave taillée dans la craie comme c’est le cas dans les autres maisons de Champagne à Reims car la société Bruno Paillard, qui serait à l’origine d’un concept totalement révolutionnaire[réf. nécessaire] en Champagne à l’époque, crée en 1984, la première cave entièrement hors-sol. En 1990, pour faire face à l’augmentation de son stock, le bâtiment est modifié par l’architecte Jacques Bléhaut.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Le domaine viticole</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 3 hectares d’origine, le vignoble de la maison s’étend de nos jours sur 32 hectares dont 12 en grand cru. Le reste du raisin est issu de producteurs historiques[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 3 hectares d’origine, le vignoble de la maison s’étend de nos jours sur 32 hectares dont 12 en grand cru. Le reste du raisin est issu de producteurs historiques.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La production est d’environ 500 000 bouteilles chaque année dont 75 % sont vendues à l'étranger[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production est d’environ 500 000 bouteilles chaque année dont 75 % sont vendues à l'étranger.
 </t>
         </is>
       </c>
